--- a/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-09-26.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>26.00</t>
         </is>
       </c>
     </row>
